--- a/biology/Zoologie/Henry_Haversham_Godwin-Austen/Henry_Haversham_Godwin-Austen.xlsx
+++ b/biology/Zoologie/Henry_Haversham_Godwin-Austen/Henry_Haversham_Godwin-Austen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Haversham Godwin-Austen est un topographe, géologue et naturaliste britannique, né le 6 juillet 1834 à Teignmouth et mort le 2 décembre 1923 dans la même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Haversham Godwin-Austen explore les montagnes de la chaîne himalayenne et officie comme géomètre-expert pour topographier les glaciers à la base du K2 (dont celui qui porte son nom) ; cette montagne étant parfois appelée mont Godwin-Austen. Il arpente entre autres le glacier du Baltoro.
 Henry Haversham Godwin-Austen dispose des titres de lieutenant-colonel, de fellow de la Royal Society (FRS), de la Zoological Society of London (FZS), de la Royal Geographical Society (FRGS) et de membre de la British Ornithologists' Union (MBOU).
